--- a/Ass2 excel.xlsx
+++ b/Ass2 excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luke\Documents\GitHub\tcs\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosemary\Documents\GitHub\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18CB8E96-61CD-4D8A-9A0E-83DF17748118}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5952696-05B3-4C72-8FD4-FDB9B3A4192B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB5B7D4E-22A2-427B-A7B8-C143EC54F11C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
   <si>
     <t>=</t>
   </si>
@@ -144,9 +144,6 @@
     <t>prog</t>
   </si>
   <si>
-    <t>loss</t>
-  </si>
-  <si>
     <t>stat</t>
   </si>
   <si>
@@ -217,19 +214,132 @@
   </si>
   <si>
     <t>print expr</t>
+  </si>
+  <si>
+    <t>&lt;&lt;prog&gt;&gt; ::= public class &lt;&lt;ID&gt;&gt; { public static void main ( String[] args ) { &lt;&lt;los&gt;&gt; } }</t>
+  </si>
+  <si>
+    <t>&lt;&lt;los&gt;&gt; ::= &lt;&lt;stat&gt;&gt; &lt;&lt;los&gt;&gt; | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>los</t>
+  </si>
+  <si>
+    <t>&lt;&lt;stat&gt;&gt; ::= &lt;&lt;while&gt;&gt; | &lt;&lt;for&gt;&gt; | &lt;&lt;if&gt;&gt; | &lt;&lt;assign&gt;&gt; ; | &lt;&lt;decl&gt;&gt; ; | &lt;&lt;print&gt;&gt; ; | ;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;while&gt;&gt; ::= while ( &lt;&lt;rel expr&gt;&gt; &lt;&lt;bool expr'&gt;&gt; ) { &lt;&lt;los&gt;&gt; }</t>
+  </si>
+  <si>
+    <t>&lt;&lt;for&gt;&gt; ::= for ( &lt;&lt;for start&gt;&gt; ; &lt;&lt;rel expr&gt;&gt; &lt;&lt;bool expr'&gt;&gt; ; &lt;&lt;for arith&gt;&gt; ) { &lt;&lt;los&gt;&gt; }</t>
+  </si>
+  <si>
+    <t>&lt;&lt;for start&gt;&gt; ::= &lt;&lt;decl&gt;&gt; | &lt;&lt;assign&gt;&gt; | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;for arith&gt;&gt; ::= &lt;&lt;arith expr&gt;&gt; | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;if&gt;&gt; ::= if ( &lt;&lt;rel expr&gt;&gt; &lt;&lt;bool expr'&gt;&gt; ) { &lt;&lt;los&gt;&gt; } &lt;&lt;else if&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;else if&gt;&gt; ::= &lt;&lt;else?if&gt;&gt; { &lt;&lt;los&gt;&gt; } &lt;&lt;else if&gt;&gt; | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;else?if&gt;&gt; ::= else &lt;&lt;poss if&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;poss if&gt;&gt; ::= if ( &lt;&lt;rel expr&gt;&gt; &lt;&lt;bool expr'&gt;&gt; ) | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;assign&gt;&gt; ::= &lt;&lt;ID&gt;&gt; = &lt;&lt;expr&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;decl&gt;&gt; ::= &lt;&lt;type&gt;&gt; &lt;&lt;ID&gt;&gt; &lt;&lt;poss assign&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;print&gt;&gt; ::= System.out.print( &lt;&lt;print expr&gt;&gt; )</t>
+  </si>
+  <si>
+    <t>System.out.print</t>
+  </si>
+  <si>
+    <t>&lt;&lt;poss assign&gt;&gt; ::= = &lt;&lt;expr&gt;&gt; | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;type&gt;&gt; ::= int | boolean | char</t>
+  </si>
+  <si>
+    <t>&lt;&lt;expr&gt;&gt; ::= &lt;&lt;rel expr&gt;&gt; &lt;&lt;bool expr'&gt;&gt; | &lt;&lt;char expr&gt;&gt;</t>
+  </si>
+  <si>
+    <t>charexpr</t>
+  </si>
+  <si>
+    <t>&lt;&lt;bool expr'&gt;&gt; ::= &lt;&lt;bool op&gt;&gt; &lt;&lt;rel expr&gt;&gt; &lt;&lt;bool expr'&gt;&gt; | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;bool op&gt;&gt; ::= &lt;&lt;bool eq&gt;&gt; | &lt;&lt;bool log&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;bool eq&gt;&gt; ::= == | !=</t>
+  </si>
+  <si>
+    <t>&lt;&lt;bool log&gt;&gt; ::= &amp;&amp; | ||</t>
+  </si>
+  <si>
+    <t>&lt;&lt;rel expr&gt;&gt; ::= &lt;&lt;arith expr&gt;&gt; &lt;&lt;rel expr'&gt;&gt; | true | false</t>
+  </si>
+  <si>
+    <t>&lt;&lt;rel expr'&gt;&gt; ::= &lt;&lt;rel op&gt;&gt; &lt;&lt;arith expr&gt;&gt; | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;rel op&gt;&gt; ::= &lt; | &lt;= | &gt; | &gt;=</t>
+  </si>
+  <si>
+    <t>&lt;&lt;arith expr&gt;&gt; ::= &lt;&lt;term&gt;&gt; &lt;&lt;arith expr'&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;arith expr'&gt;&gt; ::= + &lt;&lt;term&gt;&gt; &lt;&lt;arith expr'&gt;&gt; | - &lt;&lt;term&gt;&gt; &lt;&lt;arith expr'&gt;&gt; | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;term&gt;&gt; ::= &lt;&lt;factor&gt;&gt; &lt;&lt;term'&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;term'&gt;&gt; ::= * &lt;&lt;factor&gt;&gt; &lt;&lt;term'&gt;&gt; | / &lt;&lt;factor&gt;&gt; &lt;&lt;term'&gt;&gt; | % &lt;&lt;factor&gt;&gt; &lt;&lt;term'&gt;&gt; | &lt;&lt;epsilon&gt;&gt;</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>&lt;&lt;factor&gt;&gt; ::= ( &lt;&lt;arith expr&gt;&gt; ) | &lt;&lt;ID&gt;&gt; | &lt;&lt;num&gt;&gt;</t>
+  </si>
+  <si>
+    <t>string lit</t>
+  </si>
+  <si>
+    <t>&lt;&lt;print expr&gt;&gt; ::= &lt;&lt;rel expr&gt;&gt; &lt;&lt;bool expr'&gt;&gt; | &lt;&lt;string lit&gt;&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -252,9 +362,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,15 +682,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926E73BB-425D-499D-985E-4B67B082EC64}">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AR31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="74.5703125" customWidth="1"/>
+    <col min="4" max="4" width="75.28515625" customWidth="1"/>
+    <col min="5" max="5" width="84.7109375" customWidth="1"/>
+    <col min="6" max="6" width="84.42578125" customWidth="1"/>
+    <col min="7" max="7" width="62" customWidth="1"/>
+    <col min="8" max="8" width="61" customWidth="1"/>
+    <col min="9" max="9" width="60.5703125" customWidth="1"/>
+    <col min="10" max="10" width="62.5703125" customWidth="1"/>
+    <col min="11" max="11" width="47.140625" customWidth="1"/>
+    <col min="12" max="12" width="48.28515625" customWidth="1"/>
+    <col min="13" max="13" width="67.42578125" customWidth="1"/>
+    <col min="14" max="14" width="48" customWidth="1"/>
+    <col min="15" max="15" width="47.7109375" customWidth="1"/>
+    <col min="19" max="19" width="73" customWidth="1"/>
+    <col min="25" max="25" width="67.28515625" customWidth="1"/>
+    <col min="26" max="26" width="68.42578125" customWidth="1"/>
+    <col min="27" max="27" width="67.42578125" customWidth="1"/>
+    <col min="28" max="28" width="38.42578125" customWidth="1"/>
+    <col min="29" max="30" width="47.28515625" customWidth="1"/>
+    <col min="32" max="32" width="71.42578125" customWidth="1"/>
+    <col min="33" max="33" width="73.140625" customWidth="1"/>
+    <col min="34" max="34" width="69.5703125" customWidth="1"/>
+    <col min="35" max="35" width="53.7109375" customWidth="1"/>
+    <col min="36" max="36" width="39.7109375" customWidth="1"/>
+    <col min="39" max="39" width="45.5703125" customWidth="1"/>
+    <col min="40" max="40" width="45" customWidth="1"/>
+    <col min="41" max="41" width="46.85546875" customWidth="1"/>
+    <col min="42" max="42" width="85" customWidth="1"/>
+    <col min="43" max="44" width="71.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="AB1" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="AC1" t="s">
         <v>27</v>
@@ -680,164 +826,439 @@
       <c r="AI1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AM1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN1" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO1" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="M4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AF5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AG6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="M8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AH9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="AI11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="AH12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="M13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="Y14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB15" s="2"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="AB16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="M18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="I22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="M23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO23" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="K24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="K25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="M26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="M28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="E29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="M30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>61</v>
+      <c r="M31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ass2 excel.xlsx
+++ b/Ass2 excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rosemary\Documents\GitHub\tcs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5952696-05B3-4C72-8FD4-FDB9B3A4192B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F1D8E9-3561-48EC-9024-BAC6A5BC2F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DB5B7D4E-22A2-427B-A7B8-C143EC54F11C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="98">
   <si>
     <t>=</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>&lt;&lt;print expr&gt;&gt; ::= &lt;&lt;rel expr&gt;&gt; &lt;&lt;bool expr'&gt;&gt; | &lt;&lt;string lit&gt;&gt;</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -684,15 +687,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926E73BB-425D-499D-985E-4B67B082EC64}">
   <dimension ref="A1:AR31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="74.5703125" customWidth="1"/>
+    <col min="3" max="3" width="89.28515625" customWidth="1"/>
     <col min="4" max="4" width="75.28515625" customWidth="1"/>
     <col min="5" max="5" width="84.7109375" customWidth="1"/>
     <col min="6" max="6" width="84.42578125" customWidth="1"/>
@@ -705,17 +709,20 @@
     <col min="13" max="13" width="67.42578125" customWidth="1"/>
     <col min="14" max="14" width="48" customWidth="1"/>
     <col min="15" max="15" width="47.7109375" customWidth="1"/>
+    <col min="16" max="16" width="62.85546875" customWidth="1"/>
+    <col min="17" max="17" width="62.42578125" customWidth="1"/>
+    <col min="18" max="18" width="63.140625" customWidth="1"/>
     <col min="19" max="19" width="73" customWidth="1"/>
     <col min="25" max="25" width="67.28515625" customWidth="1"/>
     <col min="26" max="26" width="68.42578125" customWidth="1"/>
     <col min="27" max="27" width="67.42578125" customWidth="1"/>
-    <col min="28" max="28" width="38.42578125" customWidth="1"/>
+    <col min="28" max="28" width="52" customWidth="1"/>
     <col min="29" max="30" width="47.28515625" customWidth="1"/>
     <col min="32" max="32" width="71.42578125" customWidth="1"/>
     <col min="33" max="33" width="73.140625" customWidth="1"/>
     <col min="34" max="34" width="69.5703125" customWidth="1"/>
     <col min="35" max="35" width="53.7109375" customWidth="1"/>
-    <col min="36" max="36" width="39.7109375" customWidth="1"/>
+    <col min="36" max="36" width="62.7109375" customWidth="1"/>
     <col min="39" max="39" width="45.5703125" customWidth="1"/>
     <col min="40" max="40" width="45" customWidth="1"/>
     <col min="41" max="41" width="46.85546875" customWidth="1"/>
@@ -723,7 +730,7 @@
     <col min="43" max="44" width="71.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -850,22 +857,31 @@
       <c r="AQ1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="S2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="R3" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="Y3" s="2" t="s">
         <v>62</v>
       </c>
@@ -891,7 +907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -917,30 +933,60 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
+      <c r="M5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB5" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="AF5" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AG5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
+      <c r="Y6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="AG6" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AH6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" t="s">
         <v>68</v>
       </c>
       <c r="Z7" s="2" t="s">
@@ -949,8 +995,11 @@
       <c r="AA7" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -963,48 +1012,114 @@
       <c r="O8" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="P8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
+      <c r="M9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="AH9" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
+      <c r="M10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="AI10" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
+      <c r="Q11" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="AI11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
+      <c r="Q12" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="AH12" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ13" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1018,7 +1133,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -1026,12 +1141,18 @@
         <v>78</v>
       </c>
       <c r="AB15" s="2"/>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ16" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1039,6 +1160,9 @@
       <c r="A17" t="s">
         <v>46</v>
       </c>
+      <c r="M17" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="Y17" s="2" t="s">
         <v>79</v>
       </c>
@@ -1062,6 +1186,9 @@
       <c r="O18" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="AJ18" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="AM18" s="2" t="s">
         <v>80</v>
       </c>
@@ -1082,6 +1209,18 @@
       <c r="J19" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="P19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1099,6 +1238,18 @@
       <c r="J20" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="M20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO20" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1110,6 +1261,18 @@
       <c r="H21" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="M21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO21" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1121,11 +1284,35 @@
       <c r="J22" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="M22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="M23" s="2" t="s">
         <v>86</v>
       </c>
@@ -1143,6 +1330,18 @@
       <c r="A24" t="s">
         <v>53</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="K24" s="2" t="s">
         <v>87</v>
       </c>
@@ -1166,6 +1365,15 @@
       <c r="L25" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="M25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="AC25" s="2" t="s">
         <v>88</v>
       </c>
@@ -1177,6 +1385,24 @@
       <c r="A26" t="s">
         <v>55</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="M26" s="2" t="s">
         <v>89</v>
       </c>
@@ -1184,6 +1410,15 @@
         <v>89</v>
       </c>
       <c r="O26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD26" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1205,6 +1440,12 @@
       <c r="A28" t="s">
         <v>57</v>
       </c>
+      <c r="C28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="M28" s="2" t="s">
         <v>91</v>
       </c>
@@ -1219,6 +1460,12 @@
       <c r="A29" t="s">
         <v>58</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>92</v>
       </c>
@@ -1233,6 +1480,12 @@
       <c r="A30" t="s">
         <v>59</v>
       </c>
+      <c r="E30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="M30" s="2" t="s">
         <v>94</v>
       </c>
@@ -1240,6 +1493,9 @@
         <v>94</v>
       </c>
       <c r="O30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP30" s="2" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1251,6 +1507,9 @@
         <v>96</v>
       </c>
       <c r="N31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>96</v>
       </c>
       <c r="AQ31" s="2" t="s">
